--- a/Document/테스트케이스 최종.xlsx
+++ b/Document/테스트케이스 최종.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김광현\Desktop\gitDirectory\git_캡스톤\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="13935" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -523,8 +526,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,9 +878,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -890,26 +890,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,53 +950,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,6 +977,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1020,7 +1031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1052,9 +1063,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1086,6 +1115,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1261,14 +1308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.25" style="1" bestFit="1" customWidth="1"/>
@@ -1279,35 +1326,35 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="14" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1317,12 +1364,12 @@
         <v>25</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>14.1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="2" customFormat="1">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1332,12 +1379,12 @@
         <v>63</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="2" customFormat="1">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1347,12 +1394,12 @@
         <v>64</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="2" customFormat="1">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1362,12 +1409,12 @@
         <v>65</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="2" customFormat="1">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1377,12 +1424,12 @@
         <v>58</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1392,12 +1439,12 @@
         <v>3</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1407,40 +1454,40 @@
         <v>5</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="23"/>
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="31"/>
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1450,110 +1497,110 @@
         <v>12</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="33">
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="23"/>
-      <c r="C15" s="6" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="31"/>
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B17" s="22"/>
-      <c r="C17" s="12" t="s">
+    <row r="17" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="35"/>
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="17.25" thickBot="1"/>
-    <row r="19" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B19" s="17" t="s">
+    <row r="18" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="2:6" s="3" customFormat="1">
-      <c r="B20" s="14" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="27" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29">
+      <c r="E21" s="16"/>
+      <c r="F21" s="17">
         <v>3.1</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1563,12 +1610,12 @@
         <v>30</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1578,12 +1625,12 @@
         <v>33</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1593,40 +1640,40 @@
         <v>5</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="10"/>
-      <c r="C26" s="6" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="19"/>
+      <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1636,110 +1683,110 @@
         <v>12</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>2.1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="33">
-      <c r="B28" s="10" t="s">
+    <row r="28" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="10"/>
-      <c r="C29" s="6" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="19"/>
+      <c r="C29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="10" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
+    <row r="31" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="20"/>
+      <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="17.25" thickBot="1"/>
-    <row r="33" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B33" s="17" t="s">
+    <row r="32" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="2:6" s="3" customFormat="1">
-      <c r="B34" s="14" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="27" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29">
+      <c r="E35" s="16"/>
+      <c r="F35" s="17">
         <v>4.3</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -1749,12 +1796,12 @@
         <v>43</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="10" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1764,12 +1811,12 @@
         <v>50</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="10"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="19"/>
       <c r="C38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1777,12 +1824,12 @@
         <v>50</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="10"/>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="19"/>
       <c r="C39" s="4" t="s">
         <v>48</v>
       </c>
@@ -1790,12 +1837,12 @@
         <v>50</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="10"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="19"/>
       <c r="C40" s="4" t="s">
         <v>49</v>
       </c>
@@ -1803,196 +1850,196 @@
         <v>50</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B41" s="20" t="s">
+    <row r="41" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13">
+      <c r="E41" s="9"/>
+      <c r="F41" s="10">
         <v>2.1</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="17.25" thickBot="1"/>
-    <row r="43" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B43" s="17" t="s">
+    <row r="42" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="2:6" s="3" customFormat="1">
-      <c r="B44" s="35" t="s">
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="2:6" s="3" customFormat="1">
-      <c r="B45" s="31" t="s">
+    <row r="45" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29">
+      <c r="E45" s="16"/>
+      <c r="F45" s="17">
         <v>7.1</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="23"/>
-      <c r="C46" s="28" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="31"/>
+      <c r="C46" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29">
+      <c r="E46" s="16"/>
+      <c r="F46" s="17">
         <v>7.1</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="10" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <v>7.1</v>
       </c>
     </row>
-    <row r="48" spans="2:6" s="2" customFormat="1">
-      <c r="B48" s="10"/>
+    <row r="48" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="19"/>
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="2:6" s="2" customFormat="1">
-      <c r="B49" s="10"/>
+    <row r="49" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="19"/>
       <c r="C49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="2:6" s="2" customFormat="1">
-      <c r="B50" s="10"/>
+    <row r="50" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="19"/>
       <c r="C50" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="2:6" s="2" customFormat="1">
-      <c r="B51" s="10"/>
+    <row r="51" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="19"/>
       <c r="C51" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:6" s="3" customFormat="1">
-      <c r="B52" s="10"/>
+    <row r="52" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="19"/>
       <c r="C52" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="2:6" s="3" customFormat="1">
-      <c r="B53" s="10"/>
+    <row r="53" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="19"/>
       <c r="C53" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:6" s="3" customFormat="1">
-      <c r="B54" s="10"/>
+    <row r="54" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="19"/>
       <c r="C54" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="2:6" s="3" customFormat="1">
-      <c r="B55" s="10"/>
+    <row r="55" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="19"/>
       <c r="C55" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="2:6" s="2" customFormat="1">
-      <c r="B56" s="10"/>
+    <row r="56" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="19"/>
       <c r="C56" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="2:6" s="3" customFormat="1">
-      <c r="B57" s="21" t="s">
+    <row r="57" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -2002,67 +2049,67 @@
         <v>83</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="31"/>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="30"/>
       <c r="C58" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="33"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="31"/>
-      <c r="C59" s="7" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="30"/>
+      <c r="C59" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D59" s="33"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="31"/>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="30"/>
       <c r="C60" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D60" s="33"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="31"/>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="30"/>
       <c r="C61" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D61" s="33"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="23"/>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="31"/>
       <c r="C62" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="8" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -2072,12 +2119,12 @@
         <v>100</v>
       </c>
       <c r="E63" s="4"/>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="8" t="s">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -2087,12 +2134,12 @@
         <v>101</v>
       </c>
       <c r="E64" s="4"/>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="8" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -2102,60 +2149,66 @@
         <v>105</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="9">
+      <c r="F65" s="8">
         <v>12.3</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="10" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="19" t="s">
         <v>106</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="10"/>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="19"/>
       <c r="C67" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D67" s="5"/>
+      <c r="D67" s="21"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="9">
+      <c r="F67" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="10"/>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="19"/>
       <c r="C68" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="21"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="9">
+      <c r="F68" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B69" s="11"/>
-      <c r="C69" s="12" t="s">
+    <row r="69" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="20"/>
+      <c r="C69" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13">
+      <c r="D69" s="22"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D47:D56"/>
+    <mergeCell ref="B47:B56"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B33:F33"/>
@@ -2168,41 +2221,9 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="D47:D56"/>
-    <mergeCell ref="B47:B56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>